--- a/public/result/12c3b8c3-0ddc-4dbf-ad71-db131bc3eaa2/new-test/TranslationsENnosport19.10.23-en-en_au-LQA (3).xlsx
+++ b/public/result/12c3b8c3-0ddc-4dbf-ad71-db131bc3eaa2/new-test/TranslationsENnosport19.10.23-en-en_au-LQA (3).xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B798"/>
+  <dimension ref="A1:B801"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6786,9 +6786,33 @@
         <v>Personal Information we collect</v>
       </c>
     </row>
+    <row r="799">
+      <c r="A799" t="str">
+        <v>The personal information and data that we collect and process about you include the following:</v>
+      </c>
+      <c r="B799" t="str">
+        <v>The personal information and data that we collect and process about you include the following:</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="str">
+        <v>a) information and documents provided to us upon registration of the player account (such as name, surname, e-mail address, phone number, residential address and date of birth) and in the course of KYC &amp; due diligence procedures</v>
+      </c>
+      <c r="B800" t="str">
+        <v>a) information and documents provided to us upon registration of the player account (such as name, surname, email address, phone number, residential address and date of birth) and in the course of KYC &amp; due diligence procedures</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="str">
+        <v>(b) information about the games you participate in via our Website</v>
+      </c>
+      <c r="B801" t="str">
+        <v>(b) information about the games you participate in via our Website</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B798"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B801"/>
   </ignoredErrors>
 </worksheet>
 </file>